--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nrg2-Erbb3.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nrg2</t>
+  </si>
+  <si>
+    <t>Erbb3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nrg2</t>
-  </si>
-  <si>
-    <t>Erbb3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05569933333333333</v>
+        <v>0.251648</v>
       </c>
       <c r="H2">
-        <v>0.167098</v>
+        <v>0.7549440000000001</v>
       </c>
       <c r="I2">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125417</v>
       </c>
       <c r="J2">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125418</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N2">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O2">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P2">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q2">
-        <v>0.002327136713111111</v>
+        <v>0.008263617024000001</v>
       </c>
       <c r="R2">
-        <v>0.020944230418</v>
+        <v>0.074372553216</v>
       </c>
       <c r="S2">
-        <v>0.00107618695325305</v>
+        <v>0.004396806061548406</v>
       </c>
       <c r="T2">
-        <v>0.00107618695325305</v>
+        <v>0.004396806061548407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05569933333333333</v>
+        <v>0.251648</v>
       </c>
       <c r="H3">
-        <v>0.167098</v>
+        <v>0.7549440000000001</v>
       </c>
       <c r="I3">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125417</v>
       </c>
       <c r="J3">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125418</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.544755</v>
       </c>
       <c r="O3">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P3">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q3">
-        <v>0.01011416344333333</v>
+        <v>0.04569550208000001</v>
       </c>
       <c r="R3">
-        <v>0.09102747099</v>
+        <v>0.4112595187200001</v>
       </c>
       <c r="S3">
-        <v>0.00467730609871762</v>
+        <v>0.02431311373062511</v>
       </c>
       <c r="T3">
-        <v>0.00467730609871762</v>
+        <v>0.02431311373062511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05569933333333333</v>
+        <v>0.251648</v>
       </c>
       <c r="H4">
-        <v>0.167098</v>
+        <v>0.7549440000000001</v>
       </c>
       <c r="I4">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125417</v>
       </c>
       <c r="J4">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125418</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N4">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O4">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P4">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q4">
-        <v>0.2062414120248889</v>
+        <v>0.9599447651840002</v>
       </c>
       <c r="R4">
-        <v>1.856172708224</v>
+        <v>8.639502886656</v>
       </c>
       <c r="S4">
-        <v>0.09537656966656892</v>
+        <v>0.5107558772453432</v>
       </c>
       <c r="T4">
-        <v>0.09537656966656891</v>
+        <v>0.5107558772453433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05569933333333333</v>
+        <v>0.251648</v>
       </c>
       <c r="H5">
-        <v>0.167098</v>
+        <v>0.7549440000000001</v>
       </c>
       <c r="I5">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125417</v>
       </c>
       <c r="J5">
-        <v>0.1117463468003448</v>
+        <v>0.6152542207125418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N5">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O5">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P5">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q5">
-        <v>0.02295655449911111</v>
+        <v>0.1424412401493333</v>
       </c>
       <c r="R5">
-        <v>0.206608990492</v>
+        <v>1.281971161344</v>
       </c>
       <c r="S5">
-        <v>0.01061628408180521</v>
+        <v>0.07578842367502496</v>
       </c>
       <c r="T5">
-        <v>0.01061628408180521</v>
+        <v>0.07578842367502497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.251648</v>
+        <v>0.017789</v>
       </c>
       <c r="H6">
-        <v>0.7549440000000001</v>
+        <v>0.053367</v>
       </c>
       <c r="I6">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="J6">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N6">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O6">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P6">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q6">
-        <v>0.01051393732266667</v>
+        <v>0.000584155182</v>
       </c>
       <c r="R6">
-        <v>0.09462543590400001</v>
+        <v>0.005257396638</v>
       </c>
       <c r="S6">
-        <v>0.004862181972475259</v>
+        <v>0.0003108102708103565</v>
       </c>
       <c r="T6">
-        <v>0.004862181972475258</v>
+        <v>0.0003108102708103565</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.251648</v>
+        <v>0.017789</v>
       </c>
       <c r="H7">
-        <v>0.7549440000000001</v>
+        <v>0.053367</v>
       </c>
       <c r="I7">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="J7">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.544755</v>
       </c>
       <c r="O7">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P7">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q7">
-        <v>0.04569550208000001</v>
+        <v>0.003230215565</v>
       </c>
       <c r="R7">
-        <v>0.4112595187200001</v>
+        <v>0.029071940085</v>
       </c>
       <c r="S7">
-        <v>0.02113193560300109</v>
+        <v>0.001718694287870716</v>
       </c>
       <c r="T7">
-        <v>0.02113193560300109</v>
+        <v>0.001718694287870716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.251648</v>
+        <v>0.017789</v>
       </c>
       <c r="H8">
-        <v>0.7549440000000001</v>
+        <v>0.053367</v>
       </c>
       <c r="I8">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="J8">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N8">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O8">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P8">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q8">
-        <v>0.9317928195413333</v>
+        <v>0.067858506437</v>
       </c>
       <c r="R8">
-        <v>8.386135375872</v>
+        <v>0.610726557933</v>
       </c>
       <c r="S8">
-        <v>0.4309086225469977</v>
+        <v>0.0361053388078483</v>
       </c>
       <c r="T8">
-        <v>0.4309086225469976</v>
+        <v>0.03610533880784831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.251648</v>
+        <v>0.017789</v>
       </c>
       <c r="H9">
-        <v>0.7549440000000001</v>
+        <v>0.053367</v>
       </c>
       <c r="I9">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="J9">
-        <v>0.5048668089315224</v>
+        <v>0.04349232790348186</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N9">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O9">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P9">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q9">
-        <v>0.1037170587306667</v>
+        <v>0.01006917289633333</v>
       </c>
       <c r="R9">
-        <v>0.9334535285760001</v>
+        <v>0.09062255606699998</v>
       </c>
       <c r="S9">
-        <v>0.04796406880904831</v>
+        <v>0.005357484536952485</v>
       </c>
       <c r="T9">
-        <v>0.0479640688090483</v>
+        <v>0.005357484536952485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.191097</v>
+        <v>0.1395776666666667</v>
       </c>
       <c r="H10">
-        <v>0.573291</v>
+        <v>0.418733</v>
       </c>
       <c r="I10">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="J10">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.04178033333333334</v>
+        <v>0.032838</v>
       </c>
       <c r="N10">
-        <v>0.125341</v>
+        <v>0.098514</v>
       </c>
       <c r="O10">
-        <v>0.009630623139527363</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="P10">
-        <v>0.009630623139527362</v>
+        <v>0.007146324094219707</v>
       </c>
       <c r="Q10">
-        <v>0.007984096358999999</v>
+        <v>0.004583451418000001</v>
       </c>
       <c r="R10">
-        <v>0.071856867231</v>
+        <v>0.041251062762</v>
       </c>
       <c r="S10">
-        <v>0.003692254213799054</v>
+        <v>0.002438707761860944</v>
       </c>
       <c r="T10">
-        <v>0.003692254213799054</v>
+        <v>0.002438707761860945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.191097</v>
+        <v>0.1395776666666667</v>
       </c>
       <c r="H11">
-        <v>0.573291</v>
+        <v>0.418733</v>
       </c>
       <c r="I11">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="J11">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.544755</v>
       </c>
       <c r="O11">
-        <v>0.04185645645377992</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="P11">
-        <v>0.04185645645377991</v>
+        <v>0.03951718316124263</v>
       </c>
       <c r="Q11">
-        <v>0.034700348745</v>
+        <v>0.02534521060166667</v>
       </c>
       <c r="R11">
-        <v>0.312303138705</v>
+        <v>0.228106895415</v>
       </c>
       <c r="S11">
-        <v>0.01604721475206121</v>
+        <v>0.0134853751427468</v>
       </c>
       <c r="T11">
-        <v>0.01604721475206121</v>
+        <v>0.0134853751427468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.191097</v>
+        <v>0.1395776666666667</v>
       </c>
       <c r="H12">
-        <v>0.573291</v>
+        <v>0.418733</v>
       </c>
       <c r="I12">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="J12">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.702762666666666</v>
+        <v>3.814633</v>
       </c>
       <c r="N12">
-        <v>11.108288</v>
+        <v>11.443899</v>
       </c>
       <c r="O12">
-        <v>0.8535095096842543</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="P12">
-        <v>0.8535095096842541</v>
+        <v>0.8301542030119253</v>
       </c>
       <c r="Q12">
-        <v>0.7075868373119999</v>
+        <v>0.5324375733296668</v>
       </c>
       <c r="R12">
-        <v>6.368281535807998</v>
+        <v>4.791938159967001</v>
       </c>
       <c r="S12">
-        <v>0.3272243174706876</v>
+        <v>0.2832929869587338</v>
       </c>
       <c r="T12">
-        <v>0.3272243174706876</v>
+        <v>0.2832929869587338</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.191097</v>
+        <v>0.1395776666666667</v>
       </c>
       <c r="H13">
-        <v>0.573291</v>
+        <v>0.418733</v>
       </c>
       <c r="I13">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="J13">
-        <v>0.3833868442681329</v>
+        <v>0.3412534513839764</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4121513333333333</v>
+        <v>0.5660336666666667</v>
       </c>
       <c r="N13">
-        <v>1.236454</v>
+        <v>1.698101</v>
       </c>
       <c r="O13">
-        <v>0.09500341072243851</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="P13">
-        <v>0.09500341072243849</v>
+        <v>0.1231822897326124</v>
       </c>
       <c r="Q13">
-        <v>0.078760883346</v>
+        <v>0.07900565844811112</v>
       </c>
       <c r="R13">
-        <v>0.7088479501139999</v>
+        <v>0.711050926033</v>
       </c>
       <c r="S13">
-        <v>0.036423057831585</v>
+        <v>0.04203638152063495</v>
       </c>
       <c r="T13">
-        <v>0.036423057831585</v>
+        <v>0.04203638152063494</v>
       </c>
     </row>
   </sheetData>
